--- a/fhir/finnish-base-profiles/StructureDefinition-fi-base-patient.xlsx
+++ b/fhir/finnish-base-profiles/StructureDefinition-fi-base-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T19:06:41+02:00</t>
+    <t>2025-05-11T16:31:48+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -803,13 +803,19 @@
 </t>
   </si>
   <si>
-    <t>Whether the patient needs an interpreter</t>
-  </si>
-  <si>
-    <t>This Patient requires an interpreter to communicate healthcare information to the practitioner.</t>
-  </si>
-  <si>
-    <t>The Patient does not speak the default language of the organization, and hence requires an interpreter. If the patient has other languages in the Communications list, then that would be the type of interpreter required.</t>
+    <t>Whether an interpreter is required</t>
+  </si>
+  <si>
+    <t>Indicates whether an interpreter is required to facilitate communication in a healthcare setting. While this extension is named patient-interpreterRequired for backwards compatibility, it may also be used on RelatedPerson, Practitioner, and Encounter.</t>
+  </si>
+  <si>
+    <t>The individual does not speak the default language of the organization, and hence requires an interpreter. If other languages are in the Communications list, then that would be the type of interpreter required.++*While this extension is named patient-interpreterRequired for backwards compatibility, it may also be used on RelatedPerson, Practitioner, and Encounter.*++When used on Patient, RelatedPerson, or Practitioner, it indicates a default or assumed need for an interpreter.+When used on Encounter, it indicates that an interpreter is needed to facilitate communication between some participants in that Encounter.+The encounter-level evaluation of whether an interpreter is needed might involve evaluating the language proficiencies of the participants.</t>
   </si>
   <si>
     <t>Patient.extension:patientProfession</t>
@@ -2143,17 +2149,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.5390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.48046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.94140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="234.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="202.4375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2162,27 +2168,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="116.65625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="100.62890625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="151.51171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.81640625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="130.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.98046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="37.796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/finnish-base-profiles/StructureDefinition-fi-base-patient.xlsx
+++ b/fhir/finnish-base-profiles/StructureDefinition-fi-base-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc2</t>
+    <t>2.0.0-rc1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:31:48+03:00</t>
+    <t>2025-02-06T19:06:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -803,19 +803,13 @@
 </t>
   </si>
   <si>
-    <t>Whether an interpreter is required</t>
-  </si>
-  <si>
-    <t>Indicates whether an interpreter is required to facilitate communication in a healthcare setting. While this extension is named patient-interpreterRequired for backwards compatibility, it may also be used on RelatedPerson, Practitioner, and Encounter.</t>
-  </si>
-  <si>
-    <t>The individual does not speak the default language of the organization, and hence requires an interpreter. If other languages are in the Communications list, then that would be the type of interpreter required.--*While this extension is named patient-interpreterRequired for backwards compatibility, it may also be used on RelatedPerson, Practitioner, and Encounter.*--When used on Patient, RelatedPerson, or Practitioner, it indicates a default or assumed need for an interpreter.-When used on Encounter, it indicates that an interpreter is needed to facilitate communication between some participants in that Encounter.-The encounter-level evaluation of whether an interpreter is needed might involve evaluating the language proficiencies of the participants.</t>
+    <t>Whether the patient needs an interpreter</t>
+  </si>
+  <si>
+    <t>This Patient requires an interpreter to communicate healthcare information to the practitioner.</t>
+  </si>
+  <si>
+    <t>The Patient does not speak the default language of the organization, and hence requires an interpreter. If the patient has other languages in the Communications list, then that would be the type of interpreter required.</t>
   </si>
   <si>
     <t>Patient.extension:patientProfession</t>
@@ -2149,17 +2143,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.2421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.5390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.48046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="202.4375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="234.6796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2168,27 +2162,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="100.62890625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="116.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="130.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.98046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="37.796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.4296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="151.51171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.81640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/finnish-base-profiles/StructureDefinition-fi-base-patient.xlsx
+++ b/fhir/finnish-base-profiles/StructureDefinition-fi-base-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T19:06:41+02:00</t>
+    <t>2025-05-11T20:18:22+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -803,13 +803,19 @@
 </t>
   </si>
   <si>
-    <t>Whether the patient needs an interpreter</t>
-  </si>
-  <si>
-    <t>This Patient requires an interpreter to communicate healthcare information to the practitioner.</t>
-  </si>
-  <si>
-    <t>The Patient does not speak the default language of the organization, and hence requires an interpreter. If the patient has other languages in the Communications list, then that would be the type of interpreter required.</t>
+    <t>Whether an interpreter is required</t>
+  </si>
+  <si>
+    <t>Indicates whether an interpreter is required to facilitate communication in a healthcare setting. While this extension is named patient-interpreterRequired for backwards compatibility, it may also be used on RelatedPerson, Practitioner, and Encounter.</t>
+  </si>
+  <si>
+    <t>The individual does not speak the default language of the organization, and hence requires an interpreter. If other languages are in the Communications list, then that would be the type of interpreter required.++*While this extension is named patient-interpreterRequired for backwards compatibility, it may also be used on RelatedPerson, Practitioner, and Encounter.*++When used on Patient, RelatedPerson, or Practitioner, it indicates a default or assumed need for an interpreter.+When used on Encounter, it indicates that an interpreter is needed to facilitate communication between some participants in that Encounter.+The encounter-level evaluation of whether an interpreter is needed might involve evaluating the language proficiencies of the participants.</t>
   </si>
   <si>
     <t>Patient.extension:patientProfession</t>
@@ -2143,17 +2149,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.5390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.48046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.94140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="234.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="202.4375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2162,27 +2168,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="116.65625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="100.62890625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="151.51171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.81640625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="130.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.98046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="37.796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
